--- a/recorded.xlsx
+++ b/recorded.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Record 2016.9.27始\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git文件\Record-2016.9.27-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="207">
   <si>
     <t xml:space="preserve">                                                                       Note</t>
   </si>
@@ -641,6 +641,30 @@
   </si>
   <si>
     <t>回家休息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入品瑞的产品到网上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月30号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安立路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言大学哈利咖啡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月一号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2344,6 +2368,44 @@
       </c>
       <c r="D116" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>11.29</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C117" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>203</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C118" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B119" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C119" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/recorded.xlsx
+++ b/recorded.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="211">
   <si>
     <t xml:space="preserve">                                                                       Note</t>
   </si>
@@ -664,7 +664,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>talked about the rings with harrde and his friend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>12月一号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北邮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶馆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1003,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2402,10 +2418,30 @@
       <c r="C119" t="s">
         <v>205</v>
       </c>
+      <c r="D119" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>206</v>
+      <c r="B120" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C120" t="s">
+        <v>208</v>
+      </c>
+      <c r="D120" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>207</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C121" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/recorded.xlsx
+++ b/recorded.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="215">
   <si>
     <t xml:space="preserve">                                                                       Note</t>
   </si>
@@ -681,6 +681,22 @@
   </si>
   <si>
     <t>茶馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小菊咖啡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和Caro工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fashion show</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1019,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2442,6 +2458,31 @@
       </c>
       <c r="C121" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>12.2</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C122" t="s">
+        <v>211</v>
+      </c>
+      <c r="D122" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B123" s="1">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C123" t="s">
+        <v>212</v>
+      </c>
+      <c r="D123" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/recorded.xlsx
+++ b/recorded.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="223">
   <si>
     <t xml:space="preserve">                                                                       Note</t>
   </si>
@@ -692,11 +692,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>和Caro工作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fashion show</t>
+    <t>和Caro又重新整理工作内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见Rasion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善产品线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去魏公村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方上课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北土城地铁站</t>
+  </si>
+  <si>
+    <t>见S拿公司材料去京仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已反写抄报</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1035,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R123"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="E110" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2355,7 +2386,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B113" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -2366,7 +2397,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>11.28</v>
       </c>
@@ -2380,7 +2411,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B115" s="1">
         <v>0.5625</v>
       </c>
@@ -2391,7 +2422,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B116" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -2402,7 +2433,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>11.29</v>
       </c>
@@ -2416,7 +2447,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>203</v>
       </c>
@@ -2427,7 +2458,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B119" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -2438,7 +2469,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B120" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -2449,7 +2480,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -2460,7 +2491,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>12.2</v>
       </c>
@@ -2474,7 +2505,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B123" s="1">
         <v>0.74305555555555547</v>
       </c>
@@ -2483,6 +2514,56 @@
       </c>
       <c r="D123" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>12.3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>12.5</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C125" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B126" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C126" t="s">
+        <v>218</v>
+      </c>
+      <c r="D126" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>12.6</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C127" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" t="s">
+        <v>221</v>
+      </c>
+      <c r="E127" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/recorded.xlsx
+++ b/recorded.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="225">
   <si>
     <t xml:space="preserve">                                                                       Note</t>
   </si>
@@ -728,6 +728,14 @@
   </si>
   <si>
     <t>已反写抄报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人大蓝微</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找产品线产品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1066,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E110" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2564,6 +2572,20 @@
       </c>
       <c r="E127" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>12.7</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C128" t="s">
+        <v>223</v>
+      </c>
+      <c r="D128" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/recorded.xlsx
+++ b/recorded.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="243">
   <si>
     <t xml:space="preserve">                                                                       Note</t>
   </si>
@@ -736,6 +736,78 @@
   </si>
   <si>
     <t>找产品线产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理供应商产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开上日语课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中汇大厦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见Steven</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六道口白兔糖咖啡厅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见于洪斌，大学同学，王乃飞，叙旧及说房子的事情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十一号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜17年展会信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定参展计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上alibaba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜广告耗材产品的市场价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十二号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steven去投资人家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,11 +827,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -786,11 +868,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1074,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R128"/>
+  <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1090,46 +1175,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2586,6 +2671,105 @@
       </c>
       <c r="D128" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>12.8</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>12.9</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B131" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>229</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D132" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C133" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D134" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B135" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D135" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>239</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D136" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
+        <v>241</v>
+      </c>
+      <c r="D137" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/recorded.xlsx
+++ b/recorded.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git文件\Record-2016.9.27-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git文件\不共享工作文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="252">
   <si>
     <t xml:space="preserve">                                                                       Note</t>
   </si>
@@ -808,6 +808,42 @@
   </si>
   <si>
     <t>Steven去投资人家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十三号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理广告耗材类产品利润率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解全球贸易通BOSSGOO.COM,盈店通ONLOON.COM,Ueeshop；做国贸网站的平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索D.PES、isle(没有公开参展商信息)参展厂家名单，整理成文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C        9:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">S          8：00 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去望京听课，Unity VR Master Class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1159,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R137"/>
+  <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2770,6 +2806,49 @@
       </c>
       <c r="D137" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C138" t="s">
+        <v>244</v>
+      </c>
+      <c r="D138" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D139" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B140" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D140" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>249</v>
+      </c>
+      <c r="D141" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B142" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D142" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/recorded.xlsx
+++ b/recorded.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="260">
   <si>
     <t xml:space="preserve">                                                                       Note</t>
   </si>
@@ -844,6 +844,38 @@
   </si>
   <si>
     <t>结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十四号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十五号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:在家完善产品线，补上铝合金板供应商和CNC刀具；帮哈利德找机器价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S:去部队谈项目；见上海来的同学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十六号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:人大蓝微</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S:人大蓝微</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1195,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R142"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2849,6 +2881,49 @@
       </c>
       <c r="D142" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C143" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C145" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>257</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C146" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B147" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C147" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/recorded.xlsx
+++ b/recorded.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="285">
   <si>
     <t xml:space="preserve">                                                                       Note</t>
   </si>
@@ -876,6 +876,105 @@
   </si>
   <si>
     <t>S:人大蓝微</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十七号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家编产品编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十八号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见二师兄，一起学习，lentern,chrome,输入法，计算机概论，日语第八课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月十九号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家上传产品到国际站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月二十号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北邮漫咖啡</t>
+  </si>
+  <si>
+    <t>上传产品，定去葫芦岛行程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月二十一号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月二十二号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北邮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和哈立德一起出发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月二十三号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽工大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见院长浅谈只会矿山项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等院长，见了书记，老师，同学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>—二十五号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月二十六号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改产品信息（40个产品）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人工作时间记录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1227,15 +1326,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="60.875" customWidth="1"/>
@@ -2902,12 +3001,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C145" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>257</v>
       </c>
@@ -2918,12 +3017,144 @@
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B147" s="1">
         <v>0.52083333333333337</v>
       </c>
       <c r="C147" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>260</v>
+      </c>
+      <c r="C148" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C149" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>264</v>
+      </c>
+      <c r="C150" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>266</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C151" t="s">
+        <v>267</v>
+      </c>
+      <c r="D151" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C152" t="s">
+        <v>270</v>
+      </c>
+      <c r="D152" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>272</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C153" t="s">
+        <v>273</v>
+      </c>
+      <c r="D153" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B154" s="1">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="C154" t="s">
+        <v>276</v>
+      </c>
+      <c r="D154" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>275</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C155" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B156" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C156" t="s">
+        <v>276</v>
+      </c>
+      <c r="D156" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B159" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2932,6 +3163,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
